--- a/Code/Results/Cases/Case_3_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012982152234106</v>
+        <v>1.039877732955504</v>
       </c>
       <c r="D2">
-        <v>1.031274161025188</v>
+        <v>1.046959125648108</v>
       </c>
       <c r="E2">
-        <v>1.017575249486567</v>
+        <v>1.038345866015583</v>
       </c>
       <c r="F2">
-        <v>1.036984449939389</v>
+        <v>1.057589790228187</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048763437937403</v>
+        <v>1.042073981240425</v>
       </c>
       <c r="J2">
-        <v>1.034781383419473</v>
+        <v>1.044967369470309</v>
       </c>
       <c r="K2">
-        <v>1.042314335003148</v>
+        <v>1.049723102938305</v>
       </c>
       <c r="L2">
-        <v>1.028795045062428</v>
+        <v>1.041134161943574</v>
       </c>
       <c r="M2">
-        <v>1.047951500686527</v>
+        <v>1.060324344721522</v>
       </c>
       <c r="N2">
-        <v>1.015211680137138</v>
+        <v>1.018872535769837</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017420565121801</v>
+        <v>1.040817298629185</v>
       </c>
       <c r="D3">
-        <v>1.034608563679439</v>
+        <v>1.047690009615101</v>
       </c>
       <c r="E3">
-        <v>1.021130873565282</v>
+        <v>1.039145120743924</v>
       </c>
       <c r="F3">
-        <v>1.040952073543</v>
+        <v>1.058483129053316</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050143756091602</v>
+        <v>1.042319073527953</v>
       </c>
       <c r="J3">
-        <v>1.037447336480747</v>
+        <v>1.045552371696296</v>
       </c>
       <c r="K3">
-        <v>1.044816973256259</v>
+        <v>1.050265944494896</v>
       </c>
       <c r="L3">
-        <v>1.031500335662644</v>
+        <v>1.041743439435209</v>
       </c>
       <c r="M3">
-        <v>1.051086465190145</v>
+        <v>1.061031347811438</v>
       </c>
       <c r="N3">
-        <v>1.016122558655842</v>
+        <v>1.019070088669788</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020236011816558</v>
+        <v>1.041425774192972</v>
       </c>
       <c r="D4">
-        <v>1.03672712878236</v>
+        <v>1.048163405259247</v>
       </c>
       <c r="E4">
-        <v>1.023392051618318</v>
+        <v>1.039663089298199</v>
       </c>
       <c r="F4">
-        <v>1.043474653160013</v>
+        <v>1.059062024736793</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051011373337285</v>
+        <v>1.042476774209586</v>
       </c>
       <c r="J4">
-        <v>1.039135870492047</v>
+        <v>1.045930793120266</v>
       </c>
       <c r="K4">
-        <v>1.046401610695447</v>
+        <v>1.050616994179363</v>
       </c>
       <c r="L4">
-        <v>1.033216120376078</v>
+        <v>1.042137825578336</v>
       </c>
       <c r="M4">
-        <v>1.053075232439558</v>
+        <v>1.061489033655254</v>
       </c>
       <c r="N4">
-        <v>1.016699156422314</v>
+        <v>1.019197797657611</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021406563162275</v>
+        <v>1.041681699233354</v>
       </c>
       <c r="D5">
-        <v>1.037608719386317</v>
+        <v>1.048362530650741</v>
       </c>
       <c r="E5">
-        <v>1.024333490108813</v>
+        <v>1.039881032725264</v>
       </c>
       <c r="F5">
-        <v>1.044524782604469</v>
+        <v>1.05930559343237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051370147949232</v>
+        <v>1.04254285782449</v>
       </c>
       <c r="J5">
-        <v>1.03983724478645</v>
+        <v>1.046089853140616</v>
       </c>
       <c r="K5">
-        <v>1.047059711047668</v>
+        <v>1.050764525320275</v>
       </c>
       <c r="L5">
-        <v>1.033929373789236</v>
+        <v>1.042303658613015</v>
       </c>
       <c r="M5">
-        <v>1.053902074710332</v>
+        <v>1.061681493197563</v>
       </c>
       <c r="N5">
-        <v>1.016938577889645</v>
+        <v>1.019251457139004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021602350991085</v>
+        <v>1.041724677291583</v>
       </c>
       <c r="D6">
-        <v>1.037756219474345</v>
+        <v>1.048395971081235</v>
       </c>
       <c r="E6">
-        <v>1.024491033256626</v>
+        <v>1.039917637453408</v>
       </c>
       <c r="F6">
-        <v>1.044700506075827</v>
+        <v>1.05934650142782</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051430041630436</v>
+        <v>1.042553941002789</v>
       </c>
       <c r="J6">
-        <v>1.039954518264854</v>
+        <v>1.046116558326014</v>
       </c>
       <c r="K6">
-        <v>1.047169741730619</v>
+        <v>1.050789293477053</v>
       </c>
       <c r="L6">
-        <v>1.034048666423604</v>
+        <v>1.042331504618234</v>
       </c>
       <c r="M6">
-        <v>1.054040371614488</v>
+        <v>1.061713810803438</v>
       </c>
       <c r="N6">
-        <v>1.016978605427052</v>
+        <v>1.019260465067098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020251703507939</v>
+        <v>1.041429193398189</v>
       </c>
       <c r="D7">
-        <v>1.036738943845279</v>
+        <v>1.048166065552572</v>
       </c>
       <c r="E7">
-        <v>1.023404666763696</v>
+        <v>1.039666000726332</v>
       </c>
       <c r="F7">
-        <v>1.043488725311333</v>
+        <v>1.059065278525928</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051016190581067</v>
+        <v>1.042477658062706</v>
       </c>
       <c r="J7">
-        <v>1.039145275299955</v>
+        <v>1.045932918600701</v>
       </c>
       <c r="K7">
-        <v>1.046410435714615</v>
+        <v>1.050618965696037</v>
       </c>
       <c r="L7">
-        <v>1.03322568226076</v>
+        <v>1.04214004131878</v>
       </c>
       <c r="M7">
-        <v>1.053086316668016</v>
+        <v>1.061491605120447</v>
       </c>
       <c r="N7">
-        <v>1.016702367184762</v>
+        <v>1.019198514774188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014494120894483</v>
+        <v>1.040195156549579</v>
       </c>
       <c r="D8">
-        <v>1.032409293282904</v>
+        <v>1.047206034202516</v>
       </c>
       <c r="E8">
-        <v>1.018785267554269</v>
+        <v>1.038615811947791</v>
       </c>
       <c r="F8">
-        <v>1.038334804470629</v>
+        <v>1.057891522239609</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049235299557358</v>
+        <v>1.042156995341517</v>
       </c>
       <c r="J8">
-        <v>1.035690073975511</v>
+        <v>1.045165096728609</v>
       </c>
       <c r="K8">
-        <v>1.043167450757656</v>
+        <v>1.049906600622972</v>
       </c>
       <c r="L8">
-        <v>1.029716653418387</v>
+        <v>1.041340039880495</v>
       </c>
       <c r="M8">
-        <v>1.049019385433127</v>
+        <v>1.0605632359781</v>
       </c>
       <c r="N8">
-        <v>1.015522218606135</v>
+        <v>1.018939324486875</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003893729597473</v>
+        <v>1.03802460834186</v>
       </c>
       <c r="D9">
-        <v>1.024467524280461</v>
+        <v>1.045517959285457</v>
       </c>
       <c r="E9">
-        <v>1.010327865963829</v>
+        <v>1.036771414627884</v>
       </c>
       <c r="F9">
-        <v>1.028893866409895</v>
+        <v>1.055829758102093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045894749874994</v>
+        <v>1.041585152984066</v>
       </c>
       <c r="J9">
-        <v>1.029309735540236</v>
+        <v>1.043811267542923</v>
       </c>
       <c r="K9">
-        <v>1.037175725078297</v>
+        <v>1.048649797694991</v>
       </c>
       <c r="L9">
-        <v>1.023255573971166</v>
+        <v>1.039931478003686</v>
       </c>
       <c r="M9">
-        <v>1.041534930967805</v>
+        <v>1.058928977197268</v>
       </c>
       <c r="N9">
-        <v>1.013340593596164</v>
+        <v>1.018481690388922</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9964882847864298</v>
+        <v>1.036580316999344</v>
       </c>
       <c r="D10">
-        <v>1.018942939268664</v>
+        <v>1.044395096196326</v>
       </c>
       <c r="E10">
-        <v>1.004454669634965</v>
+        <v>1.035546049077581</v>
       </c>
       <c r="F10">
-        <v>1.022334189063629</v>
+        <v>1.054459738764616</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043521579192659</v>
+        <v>1.041199391669215</v>
       </c>
       <c r="J10">
-        <v>1.024841927979107</v>
+        <v>1.042908217813033</v>
       </c>
       <c r="K10">
-        <v>1.032978393692171</v>
+        <v>1.047810965812324</v>
       </c>
       <c r="L10">
-        <v>1.018743956770158</v>
+        <v>1.038993270349543</v>
       </c>
       <c r="M10">
-        <v>1.036311571290321</v>
+        <v>1.057840653935637</v>
       </c>
       <c r="N10">
-        <v>1.011811615832336</v>
+        <v>1.018176015652179</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9931934486161595</v>
+        <v>1.035955585972228</v>
       </c>
       <c r="D11">
-        <v>1.016491345929803</v>
+        <v>1.043909499487477</v>
       </c>
       <c r="E11">
-        <v>1.001850621579305</v>
+        <v>1.035016473908872</v>
       </c>
       <c r="F11">
-        <v>1.019424916365355</v>
+        <v>1.053867589068432</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042456882648103</v>
+        <v>1.041031284772311</v>
       </c>
       <c r="J11">
-        <v>1.022852155376646</v>
+        <v>1.042517082001855</v>
       </c>
       <c r="K11">
-        <v>1.031108819718291</v>
+        <v>1.047447526763345</v>
       </c>
       <c r="L11">
-        <v>1.016737722072476</v>
+        <v>1.038587227392703</v>
       </c>
       <c r="M11">
-        <v>1.033989574800676</v>
+        <v>1.057369694255337</v>
       </c>
       <c r="N11">
-        <v>1.011130432886194</v>
+        <v>1.018043521487122</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9919556182809323</v>
+        <v>1.035723632708532</v>
       </c>
       <c r="D12">
-        <v>1.015571348559722</v>
+        <v>1.043729220365211</v>
       </c>
       <c r="E12">
-        <v>1.000873737723731</v>
+        <v>1.0348199201993</v>
       </c>
       <c r="F12">
-        <v>1.018333399682059</v>
+        <v>1.053647801719902</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042055610914339</v>
+        <v>1.04096868222937</v>
       </c>
       <c r="J12">
-        <v>1.022104376331287</v>
+        <v>1.042371781307039</v>
       </c>
       <c r="K12">
-        <v>1.030406185274744</v>
+        <v>1.047312497384271</v>
       </c>
       <c r="L12">
-        <v>1.015984217420466</v>
+        <v>1.038436437156122</v>
       </c>
       <c r="M12">
-        <v>1.033117592314719</v>
+        <v>1.05719480390316</v>
       </c>
       <c r="N12">
-        <v>1.010874406313796</v>
+        <v>1.017994287385003</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9922217819856674</v>
+        <v>1.035773382945207</v>
       </c>
       <c r="D13">
-        <v>1.015769122357758</v>
+        <v>1.043767886612576</v>
       </c>
       <c r="E13">
-        <v>1.001083726081428</v>
+        <v>1.03486207464172</v>
       </c>
       <c r="F13">
-        <v>1.018568035152025</v>
+        <v>1.053694939433325</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042141951081043</v>
+        <v>1.040982117925832</v>
       </c>
       <c r="J13">
-        <v>1.022265177354911</v>
+        <v>1.042402949482135</v>
       </c>
       <c r="K13">
-        <v>1.030557279531703</v>
+        <v>1.047341463073231</v>
       </c>
       <c r="L13">
-        <v>1.016146228785975</v>
+        <v>1.038468780699499</v>
       </c>
       <c r="M13">
-        <v>1.033305072291907</v>
+        <v>1.057232316418989</v>
       </c>
       <c r="N13">
-        <v>1.010929463068955</v>
+        <v>1.018004849159603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9930914187658326</v>
+        <v>1.035936410604331</v>
       </c>
       <c r="D14">
-        <v>1.016415492380616</v>
+        <v>1.043894595651297</v>
       </c>
       <c r="E14">
-        <v>1.001770071232317</v>
+        <v>1.035000223566403</v>
       </c>
       <c r="F14">
-        <v>1.019334916477225</v>
+        <v>1.053849418035364</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042423832977202</v>
+        <v>1.041026113290511</v>
       </c>
       <c r="J14">
-        <v>1.022790523375555</v>
+        <v>1.042505071710346</v>
       </c>
       <c r="K14">
-        <v>1.031050909026289</v>
+        <v>1.047436365838321</v>
       </c>
       <c r="L14">
-        <v>1.016675608777108</v>
+        <v>1.038574762361685</v>
       </c>
       <c r="M14">
-        <v>1.033917692675368</v>
+        <v>1.057355236838166</v>
       </c>
       <c r="N14">
-        <v>1.011109331740229</v>
+        <v>1.018039452183849</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9936253554532205</v>
+        <v>1.036036870561131</v>
       </c>
       <c r="D15">
-        <v>1.01681248748293</v>
+        <v>1.043972677652955</v>
       </c>
       <c r="E15">
-        <v>1.002191661143509</v>
+        <v>1.035085362138795</v>
       </c>
       <c r="F15">
-        <v>1.019805958697101</v>
+        <v>1.053944619099348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042596734783031</v>
+        <v>1.041053199081057</v>
       </c>
       <c r="J15">
-        <v>1.023113042670837</v>
+        <v>1.042567990569254</v>
       </c>
       <c r="K15">
-        <v>1.031353953723241</v>
+        <v>1.047494834362868</v>
       </c>
       <c r="L15">
-        <v>1.017000665488888</v>
+        <v>1.038640065460139</v>
       </c>
       <c r="M15">
-        <v>1.034293877262891</v>
+        <v>1.057430978171366</v>
       </c>
       <c r="N15">
-        <v>1.01121975250557</v>
+        <v>1.018060769628451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.996705032465262</v>
+        <v>1.03662179226038</v>
       </c>
       <c r="D16">
-        <v>1.019104354749341</v>
+        <v>1.044427336631624</v>
       </c>
       <c r="E16">
-        <v>1.004626168661088</v>
+        <v>1.035581216768345</v>
       </c>
       <c r="F16">
-        <v>1.022525771736779</v>
+        <v>1.054499060623954</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043591439325879</v>
+        <v>1.041210525880164</v>
       </c>
       <c r="J16">
-        <v>1.024972786595507</v>
+        <v>1.042934173989424</v>
       </c>
       <c r="K16">
-        <v>1.033101342927326</v>
+        <v>1.047835081531022</v>
       </c>
       <c r="L16">
-        <v>1.018875961790906</v>
+        <v>1.039020222539424</v>
       </c>
       <c r="M16">
-        <v>1.036464368452969</v>
+        <v>1.057871916226385</v>
       </c>
       <c r="N16">
-        <v>1.011856409721333</v>
+        <v>1.018184806044559</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9986127136793175</v>
+        <v>1.036988874698902</v>
       </c>
       <c r="D17">
-        <v>1.020525774138588</v>
+        <v>1.044712696617371</v>
       </c>
       <c r="E17">
-        <v>1.006136637938902</v>
+        <v>1.035892526341533</v>
       </c>
       <c r="F17">
-        <v>1.024213029020892</v>
+        <v>1.0548471367376</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044205306503818</v>
+        <v>1.04130892682549</v>
       </c>
       <c r="J17">
-        <v>1.026124307839415</v>
+        <v>1.043163842601151</v>
       </c>
       <c r="K17">
-        <v>1.034183235478669</v>
+        <v>1.048048451590916</v>
       </c>
       <c r="L17">
-        <v>1.020037918451439</v>
+        <v>1.039258741249633</v>
       </c>
       <c r="M17">
-        <v>1.037809429795965</v>
+        <v>1.058148583937862</v>
       </c>
       <c r="N17">
-        <v>1.012250557398007</v>
+        <v>1.018262574961201</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9997169705420249</v>
+        <v>1.037203050965007</v>
       </c>
       <c r="D18">
-        <v>1.021349162874154</v>
+        <v>1.044879201071242</v>
       </c>
       <c r="E18">
-        <v>1.00701182516066</v>
+        <v>1.03607420590237</v>
       </c>
       <c r="F18">
-        <v>1.025190568635936</v>
+        <v>1.055050267529201</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044559801209219</v>
+        <v>1.041366219184048</v>
       </c>
       <c r="J18">
-        <v>1.026790674654876</v>
+        <v>1.043297793802841</v>
       </c>
       <c r="K18">
-        <v>1.034809283824756</v>
+        <v>1.048172885508715</v>
       </c>
       <c r="L18">
-        <v>1.020710613141436</v>
+        <v>1.039397885092564</v>
       </c>
       <c r="M18">
-        <v>1.038588199381198</v>
+        <v>1.058309987572053</v>
       </c>
       <c r="N18">
-        <v>1.012478621069203</v>
+        <v>1.01830792320273</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00009207965414</v>
+        <v>1.037276090241696</v>
       </c>
       <c r="D19">
-        <v>1.02162896305903</v>
+        <v>1.044935984718169</v>
       </c>
       <c r="E19">
-        <v>1.00730926400756</v>
+        <v>1.036136170509212</v>
       </c>
       <c r="F19">
-        <v>1.025522779023157</v>
+        <v>1.055119547454624</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044680076806279</v>
+        <v>1.041385736868272</v>
       </c>
       <c r="J19">
-        <v>1.027017001887051</v>
+        <v>1.043343465870789</v>
       </c>
       <c r="K19">
-        <v>1.035021912487622</v>
+        <v>1.048215310627514</v>
       </c>
       <c r="L19">
-        <v>1.020939138546179</v>
+        <v>1.039445332892394</v>
       </c>
       <c r="M19">
-        <v>1.038852771811586</v>
+        <v>1.058365026758098</v>
       </c>
       <c r="N19">
-        <v>1.012556077321705</v>
+        <v>1.018323383554893</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984089178221561</v>
+        <v>1.036949483673618</v>
       </c>
       <c r="D20">
-        <v>1.020373862080562</v>
+        <v>1.044682074099166</v>
       </c>
       <c r="E20">
-        <v>1.005975186666808</v>
+        <v>1.035859115628493</v>
       </c>
       <c r="F20">
-        <v>1.02403268963034</v>
+        <v>1.054809780708771</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044139814530008</v>
+        <v>1.041298380010737</v>
       </c>
       <c r="J20">
-        <v>1.026001311098002</v>
+        <v>1.043139202423391</v>
       </c>
       <c r="K20">
-        <v>1.034067678505369</v>
+        <v>1.0480255611912</v>
       </c>
       <c r="L20">
-        <v>1.019913777067132</v>
+        <v>1.039233148381703</v>
       </c>
       <c r="M20">
-        <v>1.03766571857309</v>
+        <v>1.058118897201528</v>
       </c>
       <c r="N20">
-        <v>1.012208459911367</v>
+        <v>1.018254232439484</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9928357244468792</v>
+        <v>1.035888400263018</v>
       </c>
       <c r="D21">
-        <v>1.01622541476028</v>
+        <v>1.04385728041575</v>
       </c>
       <c r="E21">
-        <v>1.001568229324492</v>
+        <v>1.034959537886424</v>
       </c>
       <c r="F21">
-        <v>1.019109393929911</v>
+        <v>1.053803923414264</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042340987644346</v>
+        <v>1.041013162168807</v>
       </c>
       <c r="J21">
-        <v>1.022636065255387</v>
+        <v>1.042474999677747</v>
       </c>
       <c r="K21">
-        <v>1.030905776608609</v>
+        <v>1.047408420212775</v>
       </c>
       <c r="L21">
-        <v>1.016519951906032</v>
+        <v>1.038543552506271</v>
       </c>
       <c r="M21">
-        <v>1.033737556863211</v>
+        <v>1.05731903858497</v>
       </c>
       <c r="N21">
-        <v>1.011056448949821</v>
+        <v>1.018029263000877</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9892503475086396</v>
+        <v>1.035221832086793</v>
       </c>
       <c r="D22">
-        <v>1.013562690581019</v>
+        <v>1.043339239332155</v>
       </c>
       <c r="E22">
-        <v>0.9987414592955495</v>
+        <v>1.034394829858895</v>
       </c>
       <c r="F22">
-        <v>1.015950665523353</v>
+        <v>1.05317244721795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041176338595221</v>
+        <v>1.040832908051701</v>
       </c>
       <c r="J22">
-        <v>1.020469713310084</v>
+        <v>1.042057300211972</v>
       </c>
       <c r="K22">
-        <v>1.028870172395187</v>
+        <v>1.047020214927698</v>
       </c>
       <c r="L22">
-        <v>1.014337889419687</v>
+        <v>1.038110163022429</v>
       </c>
       <c r="M22">
-        <v>1.031212623614554</v>
+        <v>1.056816396950065</v>
       </c>
       <c r="N22">
-        <v>1.010314676879259</v>
+        <v>1.017887701027853</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9911589845619644</v>
+        <v>1.035575137452758</v>
       </c>
       <c r="D23">
-        <v>1.014979565113638</v>
+        <v>1.043613811109188</v>
       </c>
       <c r="E23">
-        <v>1.000245452104783</v>
+        <v>1.034694107225827</v>
       </c>
       <c r="F23">
-        <v>1.017631350521496</v>
+        <v>1.053507114506938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041797009422957</v>
+        <v>1.040928551790229</v>
       </c>
       <c r="J23">
-        <v>1.021623063236879</v>
+        <v>1.042278738693276</v>
       </c>
       <c r="K23">
-        <v>1.029953923594669</v>
+        <v>1.047226027020691</v>
       </c>
       <c r="L23">
-        <v>1.015499349314758</v>
+        <v>1.038339892920807</v>
       </c>
       <c r="M23">
-        <v>1.032556519204404</v>
+        <v>1.057082831611474</v>
       </c>
       <c r="N23">
-        <v>1.010709605260422</v>
+        <v>1.017962756448867</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9985010304928579</v>
+        <v>1.036967282586895</v>
       </c>
       <c r="D24">
-        <v>1.020442522187128</v>
+        <v>1.044695910915481</v>
       </c>
       <c r="E24">
-        <v>1.006048157572592</v>
+        <v>1.035874212189065</v>
       </c>
       <c r="F24">
-        <v>1.024114197623679</v>
+        <v>1.054826659969408</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044169418530415</v>
+        <v>1.041303145981413</v>
       </c>
       <c r="J24">
-        <v>1.026056904368598</v>
+        <v>1.043150336291988</v>
       </c>
       <c r="K24">
-        <v>1.034119909156621</v>
+        <v>1.048035904443221</v>
       </c>
       <c r="L24">
-        <v>1.01996988680856</v>
+        <v>1.039244712635667</v>
       </c>
       <c r="M24">
-        <v>1.037730673325002</v>
+        <v>1.058132311273323</v>
       </c>
       <c r="N24">
-        <v>1.012227487617791</v>
+        <v>1.01825800210632</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006691324690793</v>
+        <v>1.038585268649189</v>
       </c>
       <c r="D25">
-        <v>1.026559670607896</v>
+        <v>1.045953929086853</v>
       </c>
       <c r="E25">
-        <v>1.012554059501941</v>
+        <v>1.037247495708751</v>
       </c>
       <c r="F25">
-        <v>1.031379540198012</v>
+        <v>1.056361988739178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046783344137436</v>
+        <v>1.041733789469476</v>
       </c>
       <c r="J25">
-        <v>1.030995578554039</v>
+        <v>1.044161356857018</v>
       </c>
       <c r="K25">
-        <v>1.038759212426106</v>
+        <v>1.048974885691925</v>
       </c>
       <c r="L25">
-        <v>1.024960566354256</v>
+        <v>1.040295482862591</v>
       </c>
       <c r="M25">
-        <v>1.043509503833337</v>
+        <v>1.0593512693773</v>
       </c>
       <c r="N25">
-        <v>1.013917279352895</v>
+        <v>1.018600104769281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_148/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_148/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.039877732955504</v>
+        <v>1.012982152234106</v>
       </c>
       <c r="D2">
-        <v>1.046959125648108</v>
+        <v>1.031274161025187</v>
       </c>
       <c r="E2">
-        <v>1.038345866015583</v>
+        <v>1.017575249486566</v>
       </c>
       <c r="F2">
-        <v>1.057589790228187</v>
+        <v>1.036984449939389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042073981240425</v>
+        <v>1.048763437937403</v>
       </c>
       <c r="J2">
-        <v>1.044967369470309</v>
+        <v>1.034781383419472</v>
       </c>
       <c r="K2">
-        <v>1.049723102938305</v>
+        <v>1.042314335003148</v>
       </c>
       <c r="L2">
-        <v>1.041134161943574</v>
+        <v>1.028795045062428</v>
       </c>
       <c r="M2">
-        <v>1.060324344721522</v>
+        <v>1.047951500686527</v>
       </c>
       <c r="N2">
-        <v>1.018872535769837</v>
+        <v>1.015211680137138</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040817298629185</v>
+        <v>1.017420565121802</v>
       </c>
       <c r="D3">
-        <v>1.047690009615101</v>
+        <v>1.034608563679441</v>
       </c>
       <c r="E3">
-        <v>1.039145120743924</v>
+        <v>1.021130873565283</v>
       </c>
       <c r="F3">
-        <v>1.058483129053316</v>
+        <v>1.040952073543001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042319073527953</v>
+        <v>1.050143756091602</v>
       </c>
       <c r="J3">
-        <v>1.045552371696296</v>
+        <v>1.037447336480748</v>
       </c>
       <c r="K3">
-        <v>1.050265944494896</v>
+        <v>1.04481697325626</v>
       </c>
       <c r="L3">
-        <v>1.041743439435209</v>
+        <v>1.031500335662645</v>
       </c>
       <c r="M3">
-        <v>1.061031347811438</v>
+        <v>1.051086465190145</v>
       </c>
       <c r="N3">
-        <v>1.019070088669788</v>
+        <v>1.016122558655842</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041425774192972</v>
+        <v>1.020236011816559</v>
       </c>
       <c r="D4">
-        <v>1.048163405259247</v>
+        <v>1.03672712878236</v>
       </c>
       <c r="E4">
-        <v>1.039663089298199</v>
+        <v>1.023392051618319</v>
       </c>
       <c r="F4">
-        <v>1.059062024736793</v>
+        <v>1.043474653160014</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042476774209586</v>
+        <v>1.051011373337285</v>
       </c>
       <c r="J4">
-        <v>1.045930793120266</v>
+        <v>1.039135870492047</v>
       </c>
       <c r="K4">
-        <v>1.050616994179363</v>
+        <v>1.046401610695448</v>
       </c>
       <c r="L4">
-        <v>1.042137825578336</v>
+        <v>1.033216120376078</v>
       </c>
       <c r="M4">
-        <v>1.061489033655254</v>
+        <v>1.053075232439558</v>
       </c>
       <c r="N4">
-        <v>1.019197797657611</v>
+        <v>1.016699156422314</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041681699233354</v>
+        <v>1.021406563162276</v>
       </c>
       <c r="D5">
-        <v>1.048362530650741</v>
+        <v>1.037608719386318</v>
       </c>
       <c r="E5">
-        <v>1.039881032725264</v>
+        <v>1.024333490108814</v>
       </c>
       <c r="F5">
-        <v>1.05930559343237</v>
+        <v>1.044524782604469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04254285782449</v>
+        <v>1.051370147949232</v>
       </c>
       <c r="J5">
-        <v>1.046089853140616</v>
+        <v>1.039837244786451</v>
       </c>
       <c r="K5">
-        <v>1.050764525320275</v>
+        <v>1.047059711047669</v>
       </c>
       <c r="L5">
-        <v>1.042303658613015</v>
+        <v>1.033929373789237</v>
       </c>
       <c r="M5">
-        <v>1.061681493197563</v>
+        <v>1.053902074710332</v>
       </c>
       <c r="N5">
-        <v>1.019251457139004</v>
+        <v>1.016938577889645</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041724677291583</v>
+        <v>1.021602350991085</v>
       </c>
       <c r="D6">
-        <v>1.048395971081235</v>
+        <v>1.037756219474345</v>
       </c>
       <c r="E6">
-        <v>1.039917637453408</v>
+        <v>1.024491033256627</v>
       </c>
       <c r="F6">
-        <v>1.05934650142782</v>
+        <v>1.044700506075828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042553941002789</v>
+        <v>1.051430041630437</v>
       </c>
       <c r="J6">
-        <v>1.046116558326014</v>
+        <v>1.039954518264854</v>
       </c>
       <c r="K6">
-        <v>1.050789293477053</v>
+        <v>1.04716974173062</v>
       </c>
       <c r="L6">
-        <v>1.042331504618234</v>
+        <v>1.034048666423604</v>
       </c>
       <c r="M6">
-        <v>1.061713810803438</v>
+        <v>1.054040371614488</v>
       </c>
       <c r="N6">
-        <v>1.019260465067098</v>
+        <v>1.016978605427052</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041429193398189</v>
+        <v>1.020251703507939</v>
       </c>
       <c r="D7">
-        <v>1.048166065552572</v>
+        <v>1.03673894384528</v>
       </c>
       <c r="E7">
-        <v>1.039666000726332</v>
+        <v>1.023404666763696</v>
       </c>
       <c r="F7">
-        <v>1.059065278525928</v>
+        <v>1.043488725311333</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042477658062706</v>
+        <v>1.051016190581067</v>
       </c>
       <c r="J7">
-        <v>1.045932918600701</v>
+        <v>1.039145275299955</v>
       </c>
       <c r="K7">
-        <v>1.050618965696037</v>
+        <v>1.046410435714615</v>
       </c>
       <c r="L7">
-        <v>1.04214004131878</v>
+        <v>1.03322568226076</v>
       </c>
       <c r="M7">
-        <v>1.061491605120447</v>
+        <v>1.053086316668017</v>
       </c>
       <c r="N7">
-        <v>1.019198514774188</v>
+        <v>1.016702367184762</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040195156549579</v>
+        <v>1.014494120894483</v>
       </c>
       <c r="D8">
-        <v>1.047206034202516</v>
+        <v>1.032409293282905</v>
       </c>
       <c r="E8">
-        <v>1.038615811947791</v>
+        <v>1.018785267554269</v>
       </c>
       <c r="F8">
-        <v>1.057891522239609</v>
+        <v>1.03833480447063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042156995341517</v>
+        <v>1.049235299557358</v>
       </c>
       <c r="J8">
-        <v>1.045165096728609</v>
+        <v>1.035690073975511</v>
       </c>
       <c r="K8">
-        <v>1.049906600622972</v>
+        <v>1.043167450757657</v>
       </c>
       <c r="L8">
-        <v>1.041340039880495</v>
+        <v>1.029716653418387</v>
       </c>
       <c r="M8">
-        <v>1.0605632359781</v>
+        <v>1.049019385433128</v>
       </c>
       <c r="N8">
-        <v>1.018939324486875</v>
+        <v>1.015522218606135</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03802460834186</v>
+        <v>1.003893729597473</v>
       </c>
       <c r="D9">
-        <v>1.045517959285457</v>
+        <v>1.024467524280461</v>
       </c>
       <c r="E9">
-        <v>1.036771414627884</v>
+        <v>1.01032786596383</v>
       </c>
       <c r="F9">
-        <v>1.055829758102093</v>
+        <v>1.028893866409895</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041585152984066</v>
+        <v>1.045894749874994</v>
       </c>
       <c r="J9">
-        <v>1.043811267542923</v>
+        <v>1.029309735540236</v>
       </c>
       <c r="K9">
-        <v>1.048649797694991</v>
+        <v>1.037175725078298</v>
       </c>
       <c r="L9">
-        <v>1.039931478003686</v>
+        <v>1.023255573971166</v>
       </c>
       <c r="M9">
-        <v>1.058928977197268</v>
+        <v>1.041534930967805</v>
       </c>
       <c r="N9">
-        <v>1.018481690388922</v>
+        <v>1.013340593596164</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036580316999344</v>
+        <v>0.996488284786429</v>
       </c>
       <c r="D10">
-        <v>1.044395096196326</v>
+        <v>1.018942939268664</v>
       </c>
       <c r="E10">
-        <v>1.035546049077581</v>
+        <v>1.004454669634964</v>
       </c>
       <c r="F10">
-        <v>1.054459738764616</v>
+        <v>1.022334189063629</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041199391669215</v>
+        <v>1.043521579192658</v>
       </c>
       <c r="J10">
-        <v>1.042908217813033</v>
+        <v>1.024841927979107</v>
       </c>
       <c r="K10">
-        <v>1.047810965812324</v>
+        <v>1.032978393692171</v>
       </c>
       <c r="L10">
-        <v>1.038993270349543</v>
+        <v>1.018743956770157</v>
       </c>
       <c r="M10">
-        <v>1.057840653935637</v>
+        <v>1.036311571290321</v>
       </c>
       <c r="N10">
-        <v>1.018176015652179</v>
+        <v>1.011811615832336</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035955585972228</v>
+        <v>0.9931934486161578</v>
       </c>
       <c r="D11">
-        <v>1.043909499487477</v>
+        <v>1.016491345929801</v>
       </c>
       <c r="E11">
-        <v>1.035016473908872</v>
+        <v>1.001850621579303</v>
       </c>
       <c r="F11">
-        <v>1.053867589068432</v>
+        <v>1.019424916365353</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041031284772311</v>
+        <v>1.042456882648102</v>
       </c>
       <c r="J11">
-        <v>1.042517082001855</v>
+        <v>1.022852155376645</v>
       </c>
       <c r="K11">
-        <v>1.047447526763345</v>
+        <v>1.031108819718289</v>
       </c>
       <c r="L11">
-        <v>1.038587227392703</v>
+        <v>1.016737722072475</v>
       </c>
       <c r="M11">
-        <v>1.057369694255337</v>
+        <v>1.033989574800675</v>
       </c>
       <c r="N11">
-        <v>1.018043521487122</v>
+        <v>1.011130432886193</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035723632708532</v>
+        <v>0.991955618280932</v>
       </c>
       <c r="D12">
-        <v>1.043729220365211</v>
+        <v>1.015571348559722</v>
       </c>
       <c r="E12">
-        <v>1.0348199201993</v>
+        <v>1.000873737723731</v>
       </c>
       <c r="F12">
-        <v>1.053647801719902</v>
+        <v>1.018333399682058</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04096868222937</v>
+        <v>1.042055610914339</v>
       </c>
       <c r="J12">
-        <v>1.042371781307039</v>
+        <v>1.022104376331287</v>
       </c>
       <c r="K12">
-        <v>1.047312497384271</v>
+        <v>1.030406185274744</v>
       </c>
       <c r="L12">
-        <v>1.038436437156122</v>
+        <v>1.015984217420466</v>
       </c>
       <c r="M12">
-        <v>1.05719480390316</v>
+        <v>1.033117592314719</v>
       </c>
       <c r="N12">
-        <v>1.017994287385003</v>
+        <v>1.010874406313795</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035773382945207</v>
+        <v>0.9922217819856664</v>
       </c>
       <c r="D13">
-        <v>1.043767886612576</v>
+        <v>1.015769122357757</v>
       </c>
       <c r="E13">
-        <v>1.03486207464172</v>
+        <v>1.001083726081427</v>
       </c>
       <c r="F13">
-        <v>1.053694939433325</v>
+        <v>1.018568035152024</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040982117925832</v>
+        <v>1.042141951081042</v>
       </c>
       <c r="J13">
-        <v>1.042402949482135</v>
+        <v>1.022265177354911</v>
       </c>
       <c r="K13">
-        <v>1.047341463073231</v>
+        <v>1.030557279531702</v>
       </c>
       <c r="L13">
-        <v>1.038468780699499</v>
+        <v>1.016146228785974</v>
       </c>
       <c r="M13">
-        <v>1.057232316418989</v>
+        <v>1.033305072291906</v>
       </c>
       <c r="N13">
-        <v>1.018004849159603</v>
+        <v>1.010929463068955</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035936410604331</v>
+        <v>0.9930914187658326</v>
       </c>
       <c r="D14">
-        <v>1.043894595651297</v>
+        <v>1.016415492380616</v>
       </c>
       <c r="E14">
-        <v>1.035000223566403</v>
+        <v>1.001770071232317</v>
       </c>
       <c r="F14">
-        <v>1.053849418035364</v>
+        <v>1.019334916477225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041026113290511</v>
+        <v>1.042423832977202</v>
       </c>
       <c r="J14">
-        <v>1.042505071710346</v>
+        <v>1.022790523375555</v>
       </c>
       <c r="K14">
-        <v>1.047436365838321</v>
+        <v>1.031050909026289</v>
       </c>
       <c r="L14">
-        <v>1.038574762361685</v>
+        <v>1.016675608777107</v>
       </c>
       <c r="M14">
-        <v>1.057355236838166</v>
+        <v>1.033917692675368</v>
       </c>
       <c r="N14">
-        <v>1.018039452183849</v>
+        <v>1.011109331740229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036036870561131</v>
+        <v>0.9936253554532214</v>
       </c>
       <c r="D15">
-        <v>1.043972677652955</v>
+        <v>1.016812487482931</v>
       </c>
       <c r="E15">
-        <v>1.035085362138795</v>
+        <v>1.00219166114351</v>
       </c>
       <c r="F15">
-        <v>1.053944619099348</v>
+        <v>1.019805958697102</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041053199081057</v>
+        <v>1.042596734783032</v>
       </c>
       <c r="J15">
-        <v>1.042567990569254</v>
+        <v>1.023113042670838</v>
       </c>
       <c r="K15">
-        <v>1.047494834362868</v>
+        <v>1.031353953723242</v>
       </c>
       <c r="L15">
-        <v>1.038640065460139</v>
+        <v>1.017000665488889</v>
       </c>
       <c r="M15">
-        <v>1.057430978171366</v>
+        <v>1.034293877262892</v>
       </c>
       <c r="N15">
-        <v>1.018060769628451</v>
+        <v>1.01121975250557</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.03662179226038</v>
+        <v>0.996705032465262</v>
       </c>
       <c r="D16">
-        <v>1.044427336631624</v>
+        <v>1.019104354749341</v>
       </c>
       <c r="E16">
-        <v>1.035581216768345</v>
+        <v>1.004626168661088</v>
       </c>
       <c r="F16">
-        <v>1.054499060623954</v>
+        <v>1.022525771736779</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041210525880164</v>
+        <v>1.043591439325879</v>
       </c>
       <c r="J16">
-        <v>1.042934173989424</v>
+        <v>1.024972786595507</v>
       </c>
       <c r="K16">
-        <v>1.047835081531022</v>
+        <v>1.033101342927326</v>
       </c>
       <c r="L16">
-        <v>1.039020222539424</v>
+        <v>1.018875961790906</v>
       </c>
       <c r="M16">
-        <v>1.057871916226385</v>
+        <v>1.036464368452969</v>
       </c>
       <c r="N16">
-        <v>1.018184806044559</v>
+        <v>1.011856409721332</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036988874698902</v>
+        <v>0.9986127136793181</v>
       </c>
       <c r="D17">
-        <v>1.044712696617371</v>
+        <v>1.020525774138588</v>
       </c>
       <c r="E17">
-        <v>1.035892526341533</v>
+        <v>1.006136637938902</v>
       </c>
       <c r="F17">
-        <v>1.0548471367376</v>
+        <v>1.024213029020893</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04130892682549</v>
+        <v>1.044205306503819</v>
       </c>
       <c r="J17">
-        <v>1.043163842601151</v>
+        <v>1.026124307839415</v>
       </c>
       <c r="K17">
-        <v>1.048048451590916</v>
+        <v>1.03418323547867</v>
       </c>
       <c r="L17">
-        <v>1.039258741249633</v>
+        <v>1.02003791845144</v>
       </c>
       <c r="M17">
-        <v>1.058148583937862</v>
+        <v>1.037809429795966</v>
       </c>
       <c r="N17">
-        <v>1.018262574961201</v>
+        <v>1.012250557398008</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037203050965007</v>
+        <v>0.9997169705420249</v>
       </c>
       <c r="D18">
-        <v>1.044879201071242</v>
+        <v>1.021349162874154</v>
       </c>
       <c r="E18">
-        <v>1.03607420590237</v>
+        <v>1.00701182516066</v>
       </c>
       <c r="F18">
-        <v>1.055050267529201</v>
+        <v>1.025190568635936</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041366219184048</v>
+        <v>1.044559801209219</v>
       </c>
       <c r="J18">
-        <v>1.043297793802841</v>
+        <v>1.026790674654876</v>
       </c>
       <c r="K18">
-        <v>1.048172885508715</v>
+        <v>1.034809283824756</v>
       </c>
       <c r="L18">
-        <v>1.039397885092564</v>
+        <v>1.020710613141436</v>
       </c>
       <c r="M18">
-        <v>1.058309987572053</v>
+        <v>1.038588199381199</v>
       </c>
       <c r="N18">
-        <v>1.01830792320273</v>
+        <v>1.012478621069203</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037276090241696</v>
+        <v>1.000092079654139</v>
       </c>
       <c r="D19">
-        <v>1.044935984718169</v>
+        <v>1.021628963059029</v>
       </c>
       <c r="E19">
-        <v>1.036136170509212</v>
+        <v>1.007309264007558</v>
       </c>
       <c r="F19">
-        <v>1.055119547454624</v>
+        <v>1.025522779023156</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041385736868272</v>
+        <v>1.044680076806278</v>
       </c>
       <c r="J19">
-        <v>1.043343465870789</v>
+        <v>1.02701700188705</v>
       </c>
       <c r="K19">
-        <v>1.048215310627514</v>
+        <v>1.035021912487621</v>
       </c>
       <c r="L19">
-        <v>1.039445332892394</v>
+        <v>1.020939138546178</v>
       </c>
       <c r="M19">
-        <v>1.058365026758098</v>
+        <v>1.038852771811585</v>
       </c>
       <c r="N19">
-        <v>1.018323383554893</v>
+        <v>1.012556077321704</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036949483673618</v>
+        <v>0.9984089178221559</v>
       </c>
       <c r="D20">
-        <v>1.044682074099166</v>
+        <v>1.020373862080562</v>
       </c>
       <c r="E20">
-        <v>1.035859115628493</v>
+        <v>1.005975186666807</v>
       </c>
       <c r="F20">
-        <v>1.054809780708771</v>
+        <v>1.02403268963034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041298380010737</v>
+        <v>1.044139814530007</v>
       </c>
       <c r="J20">
-        <v>1.043139202423391</v>
+        <v>1.026001311098002</v>
       </c>
       <c r="K20">
-        <v>1.0480255611912</v>
+        <v>1.034067678505368</v>
       </c>
       <c r="L20">
-        <v>1.039233148381703</v>
+        <v>1.019913777067132</v>
       </c>
       <c r="M20">
-        <v>1.058118897201528</v>
+        <v>1.03766571857309</v>
       </c>
       <c r="N20">
-        <v>1.018254232439484</v>
+        <v>1.012208459911367</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035888400263018</v>
+        <v>0.9928357244468794</v>
       </c>
       <c r="D21">
-        <v>1.04385728041575</v>
+        <v>1.01622541476028</v>
       </c>
       <c r="E21">
-        <v>1.034959537886424</v>
+        <v>1.001568229324492</v>
       </c>
       <c r="F21">
-        <v>1.053803923414264</v>
+        <v>1.019109393929911</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041013162168807</v>
+        <v>1.042340987644346</v>
       </c>
       <c r="J21">
-        <v>1.042474999677747</v>
+        <v>1.022636065255387</v>
       </c>
       <c r="K21">
-        <v>1.047408420212775</v>
+        <v>1.030905776608609</v>
       </c>
       <c r="L21">
-        <v>1.038543552506271</v>
+        <v>1.016519951906032</v>
       </c>
       <c r="M21">
-        <v>1.05731903858497</v>
+        <v>1.033737556863211</v>
       </c>
       <c r="N21">
-        <v>1.018029263000877</v>
+        <v>1.011056448949821</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035221832086793</v>
+        <v>0.9892503475086384</v>
       </c>
       <c r="D22">
-        <v>1.043339239332155</v>
+        <v>1.013562690581018</v>
       </c>
       <c r="E22">
-        <v>1.034394829858895</v>
+        <v>0.9987414592955481</v>
       </c>
       <c r="F22">
-        <v>1.05317244721795</v>
+        <v>1.015950665523352</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040832908051701</v>
+        <v>1.041176338595221</v>
       </c>
       <c r="J22">
-        <v>1.042057300211972</v>
+        <v>1.020469713310083</v>
       </c>
       <c r="K22">
-        <v>1.047020214927698</v>
+        <v>1.028870172395187</v>
       </c>
       <c r="L22">
-        <v>1.038110163022429</v>
+        <v>1.014337889419685</v>
       </c>
       <c r="M22">
-        <v>1.056816396950065</v>
+        <v>1.031212623614553</v>
       </c>
       <c r="N22">
-        <v>1.017887701027853</v>
+        <v>1.010314676879259</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035575137452758</v>
+        <v>0.9911589845619648</v>
       </c>
       <c r="D23">
-        <v>1.043613811109188</v>
+        <v>1.014979565113638</v>
       </c>
       <c r="E23">
-        <v>1.034694107225827</v>
+        <v>1.000245452104783</v>
       </c>
       <c r="F23">
-        <v>1.053507114506938</v>
+        <v>1.017631350521496</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040928551790229</v>
+        <v>1.041797009422957</v>
       </c>
       <c r="J23">
-        <v>1.042278738693276</v>
+        <v>1.02162306323688</v>
       </c>
       <c r="K23">
-        <v>1.047226027020691</v>
+        <v>1.02995392359467</v>
       </c>
       <c r="L23">
-        <v>1.038339892920807</v>
+        <v>1.015499349314758</v>
       </c>
       <c r="M23">
-        <v>1.057082831611474</v>
+        <v>1.032556519204404</v>
       </c>
       <c r="N23">
-        <v>1.017962756448867</v>
+        <v>1.010709605260423</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036967282586895</v>
+        <v>0.9985010304928588</v>
       </c>
       <c r="D24">
-        <v>1.044695910915481</v>
+        <v>1.020442522187129</v>
       </c>
       <c r="E24">
-        <v>1.035874212189065</v>
+        <v>1.006048157572593</v>
       </c>
       <c r="F24">
-        <v>1.054826659969408</v>
+        <v>1.02411419762368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041303145981413</v>
+        <v>1.044169418530415</v>
       </c>
       <c r="J24">
-        <v>1.043150336291988</v>
+        <v>1.026056904368599</v>
       </c>
       <c r="K24">
-        <v>1.048035904443221</v>
+        <v>1.034119909156621</v>
       </c>
       <c r="L24">
-        <v>1.039244712635667</v>
+        <v>1.01996988680856</v>
       </c>
       <c r="M24">
-        <v>1.058132311273323</v>
+        <v>1.037730673325003</v>
       </c>
       <c r="N24">
-        <v>1.01825800210632</v>
+        <v>1.012227487617791</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038585268649189</v>
+        <v>1.006691324690793</v>
       </c>
       <c r="D25">
-        <v>1.045953929086853</v>
+        <v>1.026559670607896</v>
       </c>
       <c r="E25">
-        <v>1.037247495708751</v>
+        <v>1.012554059501941</v>
       </c>
       <c r="F25">
-        <v>1.056361988739178</v>
+        <v>1.031379540198012</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041733789469476</v>
+        <v>1.046783344137436</v>
       </c>
       <c r="J25">
-        <v>1.044161356857018</v>
+        <v>1.03099557855404</v>
       </c>
       <c r="K25">
-        <v>1.048974885691925</v>
+        <v>1.038759212426106</v>
       </c>
       <c r="L25">
-        <v>1.040295482862591</v>
+        <v>1.024960566354257</v>
       </c>
       <c r="M25">
-        <v>1.0593512693773</v>
+        <v>1.043509503833338</v>
       </c>
       <c r="N25">
-        <v>1.018600104769281</v>
+        <v>1.013917279352895</v>
       </c>
     </row>
   </sheetData>
